--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -103,10 +103,10 @@
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>safety</t>
@@ -1119,25 +1119,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7665198237885462</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="L20">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,25 +1145,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.7424242424242424</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="M21">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,25 +1327,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.6411042944785276</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L28">
         <v>209</v>
       </c>
       <c r="M28">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="10:17">
